--- a/result-comparison.xlsx
+++ b/result-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helenzeng\DeepSeek-vLLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{508F4305-F995-4EE1-A083-FA805B93213D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D3C0D7-1323-49ED-A36A-26D3902E00A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34260" yWindow="4697" windowWidth="28543" windowHeight="13097" xr2:uid="{F32A471D-23C4-4CB5-936E-63DD1612047C}"/>
+    <workbookView xWindow="34260" yWindow="2109" windowWidth="28543" windowHeight="15685" xr2:uid="{F32A471D-23C4-4CB5-936E-63DD1612047C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>The NASA Earth book is a work that lies at the intersection of science and art. It explores how NASA has studied Earth's physical processes from beneath its crust to the edge of the atmosphere, using innovative tools to examine the water cycle, carbon cycle, ocean circulation, and the movement of heat. The book features inspiring images that tell the story of a 4.5-billion-year-old planet, showcasing the interconnected dance of land, wind, water, ice, and air as viewed from space. 
 The book emphasizes NASA's unique vantage point in observing and understanding Earth, while also celebrating the planet's inherent beauty and complexity through a collection of vivid, scientifically accurate images (source: page-8.pdf).</t>
@@ -58,22 +58,6 @@
   </si>
   <si>
     <t>DeepSeek R1 answer</t>
-  </si>
-  <si>
-    <t>Okay, let's try to figure out what the NASA Earth book is about based on the sources provided.
-First, looking at page-8.pdf, the content mentions that the book stands at the intersection of science and art. It talks about NASA studying Earth using various tools and looking at it as a system with cycles like water and carbon. The images chosen inspire and tell the story of a 4.5-billion-year-old planet, showing land, wind, water, ice, and air from above. The book emphasizes Earth's beauty and complexity, comparing it to art and highlighting observations from space.
-On page-7.pdf, the foreword notes that NASA has been observing Earth from space for decades, mentioning the view of Earth as a "blue marble." It also references how artists and scientists alike have tried to capture our planet's essence. This supports the idea that the book combines scientific observation with artistic appreciation.
-Other sources like page-171.pdf and page-175.pdf talk about acknowledgments and authors, which might not directly answer the query. They mention contributors and the authors' roles at NASA, but the main content about the book's purpose is in pages 7 and 8.
-Putting this together, the NASA Earth book is a collection of satellite images and scientific insights that showcase Earth's beauty and dynamic processes. It blends art and science to illustrate the planet's systems and inspire awe through views from space.
-&lt;/think&gt;
-- The NASA Earth book combines science and art, using satellite imagery to showcase Earth's processes and beauty from space (page-8.pdf).  
-- It highlights Earth's systems (water cycle, carbon cycle, ocean circulation) and dynamic interactions observed through NASA's unique vantage point (page-8.pdf).  
-- The images tell the story of Earth’s 4.5-billion-year history, focusing on land, wind, water, ice, and air as seen from above, emphasizing its complexity and inspiring nature (page-8.pdf).  
-- The book reflects NASA’s mission to study Earth and make science accessible, with publicly available images from missions like Landsat and MODIS (page-171.pdf, page-8.pdf).  
-**Source**: page-8.pdf, page-171.pdf</t>
-  </si>
-  <si>
-    <t>from the VM</t>
   </si>
 </sst>
 </file>
@@ -177,11 +161,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -524,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E724547-B86E-4CC4-B52C-E97B2D48F695}">
-  <dimension ref="C2:D6"/>
+  <dimension ref="C2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -540,30 +521,22 @@
   <sheetData>
     <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="3:4" ht="21" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="408.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="3:4" ht="320.60000000000002" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
